--- a/stock/data/HD현대.xlsx
+++ b/stock/data/HD현대.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1697"/>
+  <dimension ref="A1:G1730"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -39476,10 +39476,769 @@
         <v>71900</v>
       </c>
       <c r="F1697" t="n">
-        <v>454158</v>
+        <v>454704</v>
       </c>
       <c r="G1697" t="n">
         <v>4.354136429608127</v>
+      </c>
+    </row>
+    <row r="1698">
+      <c r="A1698" s="2" t="n">
+        <v>45383</v>
+      </c>
+      <c r="B1698" t="n">
+        <v>72700</v>
+      </c>
+      <c r="C1698" t="n">
+        <v>72900</v>
+      </c>
+      <c r="D1698" t="n">
+        <v>69000</v>
+      </c>
+      <c r="E1698" t="n">
+        <v>70500</v>
+      </c>
+      <c r="F1698" t="n">
+        <v>187133</v>
+      </c>
+      <c r="G1698" t="n">
+        <v>-1.947148817802503</v>
+      </c>
+    </row>
+    <row r="1699">
+      <c r="A1699" s="2" t="n">
+        <v>45384</v>
+      </c>
+      <c r="B1699" t="n">
+        <v>69900</v>
+      </c>
+      <c r="C1699" t="n">
+        <v>71300</v>
+      </c>
+      <c r="D1699" t="n">
+        <v>69800</v>
+      </c>
+      <c r="E1699" t="n">
+        <v>70300</v>
+      </c>
+      <c r="F1699" t="n">
+        <v>144956</v>
+      </c>
+      <c r="G1699" t="n">
+        <v>-0.2836879432624114</v>
+      </c>
+    </row>
+    <row r="1700">
+      <c r="A1700" s="2" t="n">
+        <v>45385</v>
+      </c>
+      <c r="B1700" t="n">
+        <v>70300</v>
+      </c>
+      <c r="C1700" t="n">
+        <v>71900</v>
+      </c>
+      <c r="D1700" t="n">
+        <v>70000</v>
+      </c>
+      <c r="E1700" t="n">
+        <v>70400</v>
+      </c>
+      <c r="F1700" t="n">
+        <v>204957</v>
+      </c>
+      <c r="G1700" t="n">
+        <v>0.1422475106685633</v>
+      </c>
+    </row>
+    <row r="1701">
+      <c r="A1701" s="2" t="n">
+        <v>45386</v>
+      </c>
+      <c r="B1701" t="n">
+        <v>70200</v>
+      </c>
+      <c r="C1701" t="n">
+        <v>70700</v>
+      </c>
+      <c r="D1701" t="n">
+        <v>69200</v>
+      </c>
+      <c r="E1701" t="n">
+        <v>70200</v>
+      </c>
+      <c r="F1701" t="n">
+        <v>217649</v>
+      </c>
+      <c r="G1701" t="n">
+        <v>-0.2840909090909091</v>
+      </c>
+    </row>
+    <row r="1702">
+      <c r="A1702" s="2" t="n">
+        <v>45387</v>
+      </c>
+      <c r="B1702" t="n">
+        <v>69700</v>
+      </c>
+      <c r="C1702" t="n">
+        <v>72000</v>
+      </c>
+      <c r="D1702" t="n">
+        <v>69700</v>
+      </c>
+      <c r="E1702" t="n">
+        <v>71200</v>
+      </c>
+      <c r="F1702" t="n">
+        <v>227575</v>
+      </c>
+      <c r="G1702" t="n">
+        <v>1.424501424501424</v>
+      </c>
+    </row>
+    <row r="1703">
+      <c r="A1703" s="2" t="n">
+        <v>45390</v>
+      </c>
+      <c r="B1703" t="n">
+        <v>71000</v>
+      </c>
+      <c r="C1703" t="n">
+        <v>72100</v>
+      </c>
+      <c r="D1703" t="n">
+        <v>70700</v>
+      </c>
+      <c r="E1703" t="n">
+        <v>71200</v>
+      </c>
+      <c r="F1703" t="n">
+        <v>154552</v>
+      </c>
+      <c r="G1703" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1704">
+      <c r="A1704" s="2" t="n">
+        <v>45391</v>
+      </c>
+      <c r="B1704" t="n">
+        <v>71700</v>
+      </c>
+      <c r="C1704" t="n">
+        <v>71700</v>
+      </c>
+      <c r="D1704" t="n">
+        <v>69700</v>
+      </c>
+      <c r="E1704" t="n">
+        <v>70100</v>
+      </c>
+      <c r="F1704" t="n">
+        <v>163178</v>
+      </c>
+      <c r="G1704" t="n">
+        <v>-1.544943820224719</v>
+      </c>
+    </row>
+    <row r="1705">
+      <c r="A1705" s="2" t="n">
+        <v>45393</v>
+      </c>
+      <c r="B1705" t="n">
+        <v>68300</v>
+      </c>
+      <c r="C1705" t="n">
+        <v>69200</v>
+      </c>
+      <c r="D1705" t="n">
+        <v>66600</v>
+      </c>
+      <c r="E1705" t="n">
+        <v>68400</v>
+      </c>
+      <c r="F1705" t="n">
+        <v>395803</v>
+      </c>
+      <c r="G1705" t="n">
+        <v>-2.425106990014266</v>
+      </c>
+    </row>
+    <row r="1706">
+      <c r="A1706" s="2" t="n">
+        <v>45394</v>
+      </c>
+      <c r="B1706" t="n">
+        <v>68200</v>
+      </c>
+      <c r="C1706" t="n">
+        <v>68800</v>
+      </c>
+      <c r="D1706" t="n">
+        <v>66700</v>
+      </c>
+      <c r="E1706" t="n">
+        <v>67400</v>
+      </c>
+      <c r="F1706" t="n">
+        <v>280766</v>
+      </c>
+      <c r="G1706" t="n">
+        <v>-1.461988304093567</v>
+      </c>
+    </row>
+    <row r="1707">
+      <c r="A1707" s="2" t="n">
+        <v>45397</v>
+      </c>
+      <c r="B1707" t="n">
+        <v>67600</v>
+      </c>
+      <c r="C1707" t="n">
+        <v>69000</v>
+      </c>
+      <c r="D1707" t="n">
+        <v>66800</v>
+      </c>
+      <c r="E1707" t="n">
+        <v>68000</v>
+      </c>
+      <c r="F1707" t="n">
+        <v>187002</v>
+      </c>
+      <c r="G1707" t="n">
+        <v>0.8902077151335311</v>
+      </c>
+    </row>
+    <row r="1708">
+      <c r="A1708" s="2" t="n">
+        <v>45398</v>
+      </c>
+      <c r="B1708" t="n">
+        <v>67300</v>
+      </c>
+      <c r="C1708" t="n">
+        <v>67800</v>
+      </c>
+      <c r="D1708" t="n">
+        <v>64500</v>
+      </c>
+      <c r="E1708" t="n">
+        <v>64900</v>
+      </c>
+      <c r="F1708" t="n">
+        <v>361938</v>
+      </c>
+      <c r="G1708" t="n">
+        <v>-4.558823529411764</v>
+      </c>
+    </row>
+    <row r="1709">
+      <c r="A1709" s="2" t="n">
+        <v>45399</v>
+      </c>
+      <c r="B1709" t="n">
+        <v>65200</v>
+      </c>
+      <c r="C1709" t="n">
+        <v>65400</v>
+      </c>
+      <c r="D1709" t="n">
+        <v>61100</v>
+      </c>
+      <c r="E1709" t="n">
+        <v>61100</v>
+      </c>
+      <c r="F1709" t="n">
+        <v>526248</v>
+      </c>
+      <c r="G1709" t="n">
+        <v>-5.855161787365177</v>
+      </c>
+    </row>
+    <row r="1710">
+      <c r="A1710" s="2" t="n">
+        <v>45400</v>
+      </c>
+      <c r="B1710" t="n">
+        <v>61300</v>
+      </c>
+      <c r="C1710" t="n">
+        <v>61700</v>
+      </c>
+      <c r="D1710" t="n">
+        <v>61000</v>
+      </c>
+      <c r="E1710" t="n">
+        <v>61100</v>
+      </c>
+      <c r="F1710" t="n">
+        <v>355205</v>
+      </c>
+      <c r="G1710" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1711">
+      <c r="A1711" s="2" t="n">
+        <v>45401</v>
+      </c>
+      <c r="B1711" t="n">
+        <v>61000</v>
+      </c>
+      <c r="C1711" t="n">
+        <v>61200</v>
+      </c>
+      <c r="D1711" t="n">
+        <v>59400</v>
+      </c>
+      <c r="E1711" t="n">
+        <v>60500</v>
+      </c>
+      <c r="F1711" t="n">
+        <v>333626</v>
+      </c>
+      <c r="G1711" t="n">
+        <v>-0.9819967266775778</v>
+      </c>
+    </row>
+    <row r="1712">
+      <c r="A1712" s="2" t="n">
+        <v>45404</v>
+      </c>
+      <c r="B1712" t="n">
+        <v>61400</v>
+      </c>
+      <c r="C1712" t="n">
+        <v>63900</v>
+      </c>
+      <c r="D1712" t="n">
+        <v>61000</v>
+      </c>
+      <c r="E1712" t="n">
+        <v>62400</v>
+      </c>
+      <c r="F1712" t="n">
+        <v>282102</v>
+      </c>
+      <c r="G1712" t="n">
+        <v>3.140495867768595</v>
+      </c>
+    </row>
+    <row r="1713">
+      <c r="A1713" s="2" t="n">
+        <v>45405</v>
+      </c>
+      <c r="B1713" t="n">
+        <v>62800</v>
+      </c>
+      <c r="C1713" t="n">
+        <v>66100</v>
+      </c>
+      <c r="D1713" t="n">
+        <v>62600</v>
+      </c>
+      <c r="E1713" t="n">
+        <v>64700</v>
+      </c>
+      <c r="F1713" t="n">
+        <v>347430</v>
+      </c>
+      <c r="G1713" t="n">
+        <v>3.685897435897436</v>
+      </c>
+    </row>
+    <row r="1714">
+      <c r="A1714" s="2" t="n">
+        <v>45406</v>
+      </c>
+      <c r="B1714" t="n">
+        <v>65100</v>
+      </c>
+      <c r="C1714" t="n">
+        <v>65300</v>
+      </c>
+      <c r="D1714" t="n">
+        <v>63900</v>
+      </c>
+      <c r="E1714" t="n">
+        <v>64900</v>
+      </c>
+      <c r="F1714" t="n">
+        <v>186143</v>
+      </c>
+      <c r="G1714" t="n">
+        <v>0.3091190108191654</v>
+      </c>
+    </row>
+    <row r="1715">
+      <c r="A1715" s="2" t="n">
+        <v>45407</v>
+      </c>
+      <c r="B1715" t="n">
+        <v>64200</v>
+      </c>
+      <c r="C1715" t="n">
+        <v>66000</v>
+      </c>
+      <c r="D1715" t="n">
+        <v>64100</v>
+      </c>
+      <c r="E1715" t="n">
+        <v>65200</v>
+      </c>
+      <c r="F1715" t="n">
+        <v>237255</v>
+      </c>
+      <c r="G1715" t="n">
+        <v>0.4622496147919877</v>
+      </c>
+    </row>
+    <row r="1716">
+      <c r="A1716" s="2" t="n">
+        <v>45408</v>
+      </c>
+      <c r="B1716" t="n">
+        <v>65600</v>
+      </c>
+      <c r="C1716" t="n">
+        <v>65700</v>
+      </c>
+      <c r="D1716" t="n">
+        <v>64400</v>
+      </c>
+      <c r="E1716" t="n">
+        <v>65200</v>
+      </c>
+      <c r="F1716" t="n">
+        <v>177731</v>
+      </c>
+      <c r="G1716" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1717">
+      <c r="A1717" s="2" t="n">
+        <v>45411</v>
+      </c>
+      <c r="B1717" t="n">
+        <v>65700</v>
+      </c>
+      <c r="C1717" t="n">
+        <v>69200</v>
+      </c>
+      <c r="D1717" t="n">
+        <v>65300</v>
+      </c>
+      <c r="E1717" t="n">
+        <v>68500</v>
+      </c>
+      <c r="F1717" t="n">
+        <v>387279</v>
+      </c>
+      <c r="G1717" t="n">
+        <v>5.061349693251533</v>
+      </c>
+    </row>
+    <row r="1718">
+      <c r="A1718" s="2" t="n">
+        <v>45412</v>
+      </c>
+      <c r="B1718" t="n">
+        <v>68500</v>
+      </c>
+      <c r="C1718" t="n">
+        <v>68700</v>
+      </c>
+      <c r="D1718" t="n">
+        <v>66900</v>
+      </c>
+      <c r="E1718" t="n">
+        <v>67400</v>
+      </c>
+      <c r="F1718" t="n">
+        <v>209825</v>
+      </c>
+      <c r="G1718" t="n">
+        <v>-1.605839416058394</v>
+      </c>
+    </row>
+    <row r="1719">
+      <c r="A1719" s="2" t="n">
+        <v>45414</v>
+      </c>
+      <c r="B1719" t="n">
+        <v>66800</v>
+      </c>
+      <c r="C1719" t="n">
+        <v>67200</v>
+      </c>
+      <c r="D1719" t="n">
+        <v>64300</v>
+      </c>
+      <c r="E1719" t="n">
+        <v>64300</v>
+      </c>
+      <c r="F1719" t="n">
+        <v>291758</v>
+      </c>
+      <c r="G1719" t="n">
+        <v>-4.599406528189911</v>
+      </c>
+    </row>
+    <row r="1720">
+      <c r="A1720" s="2" t="n">
+        <v>45415</v>
+      </c>
+      <c r="B1720" t="n">
+        <v>64700</v>
+      </c>
+      <c r="C1720" t="n">
+        <v>64800</v>
+      </c>
+      <c r="D1720" t="n">
+        <v>63300</v>
+      </c>
+      <c r="E1720" t="n">
+        <v>64200</v>
+      </c>
+      <c r="F1720" t="n">
+        <v>181042</v>
+      </c>
+      <c r="G1720" t="n">
+        <v>-0.1555209953343701</v>
+      </c>
+    </row>
+    <row r="1721">
+      <c r="A1721" s="2" t="n">
+        <v>45419</v>
+      </c>
+      <c r="B1721" t="n">
+        <v>64800</v>
+      </c>
+      <c r="C1721" t="n">
+        <v>65100</v>
+      </c>
+      <c r="D1721" t="n">
+        <v>64000</v>
+      </c>
+      <c r="E1721" t="n">
+        <v>64400</v>
+      </c>
+      <c r="F1721" t="n">
+        <v>220869</v>
+      </c>
+      <c r="G1721" t="n">
+        <v>0.3115264797507788</v>
+      </c>
+    </row>
+    <row r="1722">
+      <c r="A1722" s="2" t="n">
+        <v>45420</v>
+      </c>
+      <c r="B1722" t="n">
+        <v>64700</v>
+      </c>
+      <c r="C1722" t="n">
+        <v>67400</v>
+      </c>
+      <c r="D1722" t="n">
+        <v>63600</v>
+      </c>
+      <c r="E1722" t="n">
+        <v>66500</v>
+      </c>
+      <c r="F1722" t="n">
+        <v>378157</v>
+      </c>
+      <c r="G1722" t="n">
+        <v>3.260869565217391</v>
+      </c>
+    </row>
+    <row r="1723">
+      <c r="A1723" s="2" t="n">
+        <v>45421</v>
+      </c>
+      <c r="B1723" t="n">
+        <v>66800</v>
+      </c>
+      <c r="C1723" t="n">
+        <v>66900</v>
+      </c>
+      <c r="D1723" t="n">
+        <v>64400</v>
+      </c>
+      <c r="E1723" t="n">
+        <v>64700</v>
+      </c>
+      <c r="F1723" t="n">
+        <v>322890</v>
+      </c>
+      <c r="G1723" t="n">
+        <v>-2.706766917293233</v>
+      </c>
+    </row>
+    <row r="1724">
+      <c r="A1724" s="2" t="n">
+        <v>45422</v>
+      </c>
+      <c r="B1724" t="n">
+        <v>65400</v>
+      </c>
+      <c r="C1724" t="n">
+        <v>66200</v>
+      </c>
+      <c r="D1724" t="n">
+        <v>64900</v>
+      </c>
+      <c r="E1724" t="n">
+        <v>66000</v>
+      </c>
+      <c r="F1724" t="n">
+        <v>146516</v>
+      </c>
+      <c r="G1724" t="n">
+        <v>2.009273570324575</v>
+      </c>
+    </row>
+    <row r="1725">
+      <c r="A1725" s="2" t="n">
+        <v>45425</v>
+      </c>
+      <c r="B1725" t="n">
+        <v>66500</v>
+      </c>
+      <c r="C1725" t="n">
+        <v>68500</v>
+      </c>
+      <c r="D1725" t="n">
+        <v>66100</v>
+      </c>
+      <c r="E1725" t="n">
+        <v>68100</v>
+      </c>
+      <c r="F1725" t="n">
+        <v>272383</v>
+      </c>
+      <c r="G1725" t="n">
+        <v>3.181818181818182</v>
+      </c>
+    </row>
+    <row r="1726">
+      <c r="A1726" s="2" t="n">
+        <v>45426</v>
+      </c>
+      <c r="B1726" t="n">
+        <v>67900</v>
+      </c>
+      <c r="C1726" t="n">
+        <v>68000</v>
+      </c>
+      <c r="D1726" t="n">
+        <v>67200</v>
+      </c>
+      <c r="E1726" t="n">
+        <v>67700</v>
+      </c>
+      <c r="F1726" t="n">
+        <v>154309</v>
+      </c>
+      <c r="G1726" t="n">
+        <v>-0.5873715124816447</v>
+      </c>
+    </row>
+    <row r="1727">
+      <c r="A1727" s="2" t="n">
+        <v>45428</v>
+      </c>
+      <c r="B1727" t="n">
+        <v>68400</v>
+      </c>
+      <c r="C1727" t="n">
+        <v>68900</v>
+      </c>
+      <c r="D1727" t="n">
+        <v>67800</v>
+      </c>
+      <c r="E1727" t="n">
+        <v>68500</v>
+      </c>
+      <c r="F1727" t="n">
+        <v>221338</v>
+      </c>
+      <c r="G1727" t="n">
+        <v>1.181683899556869</v>
+      </c>
+    </row>
+    <row r="1728">
+      <c r="A1728" s="2" t="n">
+        <v>45429</v>
+      </c>
+      <c r="B1728" t="n">
+        <v>67900</v>
+      </c>
+      <c r="C1728" t="n">
+        <v>68700</v>
+      </c>
+      <c r="D1728" t="n">
+        <v>67500</v>
+      </c>
+      <c r="E1728" t="n">
+        <v>68100</v>
+      </c>
+      <c r="F1728" t="n">
+        <v>138485</v>
+      </c>
+      <c r="G1728" t="n">
+        <v>-0.583941605839416</v>
+      </c>
+    </row>
+    <row r="1729">
+      <c r="A1729" s="2" t="n">
+        <v>45432</v>
+      </c>
+      <c r="B1729" t="n">
+        <v>68600</v>
+      </c>
+      <c r="C1729" t="n">
+        <v>68900</v>
+      </c>
+      <c r="D1729" t="n">
+        <v>67300</v>
+      </c>
+      <c r="E1729" t="n">
+        <v>67700</v>
+      </c>
+      <c r="F1729" t="n">
+        <v>124735</v>
+      </c>
+      <c r="G1729" t="n">
+        <v>-0.5873715124816447</v>
+      </c>
+    </row>
+    <row r="1730">
+      <c r="A1730" s="2" t="n">
+        <v>45433</v>
+      </c>
+      <c r="B1730" t="n">
+        <v>67000</v>
+      </c>
+      <c r="C1730" t="n">
+        <v>68200</v>
+      </c>
+      <c r="D1730" t="n">
+        <v>67000</v>
+      </c>
+      <c r="E1730" t="n">
+        <v>68200</v>
+      </c>
+      <c r="F1730" t="n">
+        <v>179719</v>
+      </c>
+      <c r="G1730" t="n">
+        <v>0.7385524372230428</v>
       </c>
     </row>
   </sheetData>
